--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20222023.xlsx
@@ -52400,10 +52400,10 @@
         <v>1</v>
       </c>
       <c r="BB238" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC238" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD238" t="n">
         <v>3.4</v>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20222023.xlsx
@@ -949,13 +949,13 @@
         <v>14</v>
       </c>
       <c r="BA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="n">
         <v>3</v>
       </c>
-      <c r="BB2" t="n">
-        <v>7</v>
-      </c>
       <c r="BC2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BD2" t="n">
         <v>3.98</v>
@@ -1170,10 +1170,10 @@
         <v>5</v>
       </c>
       <c r="BB3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD3" t="n">
         <v>1.82</v>
@@ -1385,13 +1385,13 @@
         <v>15</v>
       </c>
       <c r="BA4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BB4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BC4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BD4" t="n">
         <v>1.83</v>
@@ -1486,12 +1486,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>['71', '79']</t>
+          <t>['71', '78']</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>['50', '67']</t>
+          <t>['50', '66']</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -1603,13 +1603,13 @@
         <v>12</v>
       </c>
       <c r="BA5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BB5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BC5" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="BD5" t="n">
         <v>3.03</v>
@@ -1821,13 +1821,13 @@
         <v>11</v>
       </c>
       <c r="BA6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB6" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC6" t="n">
         <v>4</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>6</v>
       </c>
       <c r="BD6" t="n">
         <v>1.35</v>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>['2', '54', '81']</t>
+          <t>['2', '54', '80']</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>['18', '27', '55', '77']</t>
+          <t>['18', '26', '55', '77']</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>['38']</t>
+          <t>['37']</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>['15', '17']</t>
+          <t>['16', '17']</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -4083,13 +4083,13 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L17" t="n">
         <v>4</v>
@@ -4102,12 +4102,12 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>['-1', '-1', '-1', '-1']</t>
+          <t>['39', '69', '82', '90+1']</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>['-1', '-1', '-1']</t>
+          <t>['44', '55', '60']</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -4219,13 +4219,13 @@
         <v>10</v>
       </c>
       <c r="BA17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BB17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC17" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BD17" t="n">
         <v>1.27</v>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>['24', '90']</t>
+          <t>['23', '90']</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -5197,7 +5197,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>['21', '74', '79', '90+5']</t>
+          <t>['21', '75', '79', '90+5']</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -7813,7 +7813,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>['5', '69', '90+7']</t>
+          <t>['5', '69', '90+8']</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -8462,7 +8462,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>['90+1']</t>
+          <t>['90']</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -8685,7 +8685,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>['50']</t>
+          <t>['51']</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -9672,10 +9672,10 @@
         <v>3</v>
       </c>
       <c r="BB42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC42" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD42" t="n">
         <v>2.35</v>
@@ -12386,7 +12386,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>['76']</t>
+          <t>['77']</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -12827,7 +12827,7 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>['13', '27', '50', '80', '90+3']</t>
+          <t>['13', '26', '50', '80', '90+2']</t>
         </is>
       </c>
       <c r="Q57" t="n">
@@ -14566,7 +14566,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>['26', '90+6']</t>
+          <t>['26', '90+5']</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -15007,7 +15007,7 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>['90+3']</t>
+          <t>['90+2']</t>
         </is>
       </c>
       <c r="Q67" t="n">
@@ -16097,7 +16097,7 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>['13', '21', '46', '50', '54', '71']</t>
+          <t>['13', '21', '47', '50', '54', '72']</t>
         </is>
       </c>
       <c r="Q72" t="n">
@@ -16528,7 +16528,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>['90+1']</t>
+          <t>['90']</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -16969,7 +16969,7 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>['16', '79', '85']</t>
+          <t>['16', '78', '85']</t>
         </is>
       </c>
       <c r="Q76" t="n">
@@ -19362,12 +19362,12 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>['14']</t>
+          <t>['15']</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>['71', '75']</t>
+          <t>['71', '74']</t>
         </is>
       </c>
       <c r="Q87" t="n">
@@ -20675,7 +20675,7 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>['3', '25', '90+5']</t>
+          <t>['3', '25', '90+3']</t>
         </is>
       </c>
       <c r="Q93" t="n">
@@ -20888,7 +20888,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>['12', '53', '58', '83']</t>
+          <t>['11', '54', '59', '84']</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
@@ -21542,7 +21542,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>['74', '87', '90+2']</t>
+          <t>['74', '88', '90+2']</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
@@ -21978,12 +21978,12 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>['12']</t>
+          <t>['11']</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>['36', '55', '56', '75', '82']</t>
+          <t>['36', '55', '57', '74', '82']</t>
         </is>
       </c>
       <c r="Q99" t="n">
@@ -22637,7 +22637,7 @@
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>['90+3']</t>
+          <t>['90+4']</t>
         </is>
       </c>
       <c r="Q102" t="n">
@@ -22850,7 +22850,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>['8', '48']</t>
+          <t>['7', '48']</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
@@ -23722,7 +23722,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>['8', '18', '25', '29', '53']</t>
+          <t>['8', '18', '25', '29', '52']</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
@@ -25466,7 +25466,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>['57', '79']</t>
+          <t>['56', '78']</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">
@@ -26338,7 +26338,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>['32', '90+3']</t>
+          <t>['32', '90+2']</t>
         </is>
       </c>
       <c r="P119" t="inlineStr">
@@ -26992,7 +26992,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>['52']</t>
+          <t>['51']</t>
         </is>
       </c>
       <c r="P122" t="inlineStr">
@@ -27869,7 +27869,7 @@
       </c>
       <c r="P126" t="inlineStr">
         <is>
-          <t>['6', '14', '21', '51']</t>
+          <t>['6', '15', '21', '51']</t>
         </is>
       </c>
       <c r="Q126" t="n">
@@ -28082,7 +28082,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>['18', '46', '85']</t>
+          <t>['18', '46', '84']</t>
         </is>
       </c>
       <c r="P127" t="inlineStr">
@@ -28835,22 +28835,22 @@
         <v>3.08</v>
       </c>
       <c r="AU130" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV130" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW130" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX130" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY130" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AZ130" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA130" t="n">
         <v>14</v>
@@ -29274,19 +29274,19 @@
         <v>4</v>
       </c>
       <c r="AV132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW132" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX132" t="n">
         <v>2</v>
       </c>
       <c r="AY132" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AZ132" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA132" t="n">
         <v>2</v>
@@ -29495,16 +29495,16 @@
         <v>5</v>
       </c>
       <c r="AW133" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX133" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY133" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ133" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA133" t="n">
         <v>3</v>
@@ -29713,16 +29713,16 @@
         <v>7</v>
       </c>
       <c r="AW134" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX134" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AY134" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AZ134" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA134" t="n">
         <v>3</v>
@@ -29928,19 +29928,19 @@
         <v>7</v>
       </c>
       <c r="AV135" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW135" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX135" t="n">
         <v>6</v>
       </c>
-      <c r="AW135" t="n">
+      <c r="AY135" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ135" t="n">
         <v>9</v>
-      </c>
-      <c r="AX135" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY135" t="n">
-        <v>16</v>
-      </c>
-      <c r="AZ135" t="n">
-        <v>16</v>
       </c>
       <c r="BA135" t="n">
         <v>5</v>
@@ -30149,13 +30149,13 @@
         <v>4</v>
       </c>
       <c r="AW136" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AX136" t="n">
         <v>3</v>
       </c>
       <c r="AY136" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AZ136" t="n">
         <v>7</v>
@@ -30367,16 +30367,16 @@
         <v>8</v>
       </c>
       <c r="AW137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX137" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY137" t="n">
         <v>4</v>
       </c>
-      <c r="AY137" t="n">
-        <v>5</v>
-      </c>
       <c r="AZ137" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA137" t="n">
         <v>2</v>
@@ -31469,13 +31469,13 @@
         <v>3</v>
       </c>
       <c r="BA142" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BB142" t="n">
         <v>1</v>
       </c>
       <c r="BC142" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BD142" t="n">
         <v>1.04</v>
@@ -32314,28 +32314,28 @@
         <v>0.93</v>
       </c>
       <c r="AR146" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT146" t="n">
-        <v>2.51</v>
+        <v>2.48</v>
       </c>
       <c r="AU146" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW146" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX146" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY146" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ146" t="n">
         <v>6</v>
@@ -32532,13 +32532,13 @@
         <v>1.47</v>
       </c>
       <c r="AR147" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT147" t="n">
-        <v>2.79</v>
+        <v>2.74</v>
       </c>
       <c r="AU147" t="n">
         <v>5</v>
@@ -32547,16 +32547,16 @@
         <v>5</v>
       </c>
       <c r="AW147" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX147" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY147" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ147" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA147" t="n">
         <v>4</v>
@@ -32753,10 +32753,10 @@
         <v>1.5</v>
       </c>
       <c r="AS148" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AT148" t="n">
-        <v>3.55</v>
+        <v>3.53</v>
       </c>
       <c r="AU148" t="n">
         <v>4</v>
@@ -32768,13 +32768,13 @@
         <v>0</v>
       </c>
       <c r="AX148" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY148" t="n">
         <v>4</v>
       </c>
       <c r="AZ148" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA148" t="n">
         <v>7</v>
@@ -32980,28 +32980,28 @@
         <v>4</v>
       </c>
       <c r="AV149" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW149" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AX149" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AY149" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AZ149" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="BA149" t="n">
         <v>2</v>
       </c>
       <c r="BB149" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC149" t="n">
         <v>8</v>
-      </c>
-      <c r="BC149" t="n">
-        <v>10</v>
       </c>
       <c r="BD149" t="n">
         <v>1.76</v>
@@ -33189,10 +33189,10 @@
         <v>1.66</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="AT150" t="n">
-        <v>3.4</v>
+        <v>3.39</v>
       </c>
       <c r="AU150" t="n">
         <v>3</v>
@@ -33201,16 +33201,16 @@
         <v>6</v>
       </c>
       <c r="AW150" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX150" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY150" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ150" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA150" t="n">
         <v>6</v>
@@ -33404,13 +33404,13 @@
         <v>1.6</v>
       </c>
       <c r="AR151" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AT151" t="n">
-        <v>2.94</v>
+        <v>2.87</v>
       </c>
       <c r="AU151" t="n">
         <v>2</v>
@@ -34276,16 +34276,16 @@
         <v>1.27</v>
       </c>
       <c r="AR155" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="AS155" t="n">
         <v>1.68</v>
       </c>
       <c r="AT155" t="n">
-        <v>3.02</v>
+        <v>2.98</v>
       </c>
       <c r="AU155" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV155" t="n">
         <v>6</v>
@@ -34294,13 +34294,13 @@
         <v>4</v>
       </c>
       <c r="AX155" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AY155" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ155" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="BA155" t="n">
         <v>5</v>
@@ -34497,13 +34497,13 @@
         <v>1.58</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AT156" t="n">
-        <v>3.22</v>
+        <v>3.19</v>
       </c>
       <c r="AU156" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV156" t="n">
         <v>5</v>
@@ -34512,13 +34512,13 @@
         <v>4</v>
       </c>
       <c r="AX156" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AY156" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ156" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA156" t="n">
         <v>4</v>
@@ -35151,10 +35151,10 @@
         <v>1.67</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT159" t="n">
-        <v>3</v>
+        <v>2.93</v>
       </c>
       <c r="AU159" t="n">
         <v>10</v>
@@ -35366,13 +35366,13 @@
         <v>1.4</v>
       </c>
       <c r="AR160" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="AS160" t="n">
         <v>1.36</v>
       </c>
       <c r="AT160" t="n">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
       <c r="AU160" t="n">
         <v>4</v>
@@ -35584,28 +35584,28 @@
         <v>1.53</v>
       </c>
       <c r="AR161" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="AS161" t="n">
         <v>1.53</v>
       </c>
       <c r="AT161" t="n">
-        <v>3.67</v>
+        <v>3.63</v>
       </c>
       <c r="AU161" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV161" t="n">
         <v>6</v>
       </c>
       <c r="AW161" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX161" t="n">
         <v>3</v>
       </c>
       <c r="AY161" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ161" t="n">
         <v>9</v>
@@ -35805,28 +35805,28 @@
         <v>1.89</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="AT162" t="n">
-        <v>3.32</v>
+        <v>3.3</v>
       </c>
       <c r="AU162" t="n">
         <v>3</v>
       </c>
       <c r="AV162" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW162" t="n">
         <v>7</v>
       </c>
       <c r="AX162" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AY162" t="n">
         <v>10</v>
       </c>
       <c r="AZ162" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="BA162" t="n">
         <v>4</v>
@@ -36020,13 +36020,13 @@
         <v>1.47</v>
       </c>
       <c r="AR163" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AT163" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="AU163" t="n">
         <v>3</v>
@@ -36038,13 +36038,13 @@
         <v>5</v>
       </c>
       <c r="AX163" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AY163" t="n">
         <v>8</v>
       </c>
       <c r="AZ163" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="BA163" t="n">
         <v>2</v>
@@ -36238,13 +36238,13 @@
         <v>0.73</v>
       </c>
       <c r="AR164" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="AS164" t="n">
         <v>1.49</v>
       </c>
       <c r="AT164" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="AU164" t="n">
         <v>3</v>
@@ -36253,16 +36253,16 @@
         <v>7</v>
       </c>
       <c r="AW164" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY164" t="n">
         <v>8</v>
       </c>
-      <c r="AX164" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY164" t="n">
-        <v>11</v>
-      </c>
       <c r="AZ164" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA164" t="n">
         <v>5</v>
@@ -36456,31 +36456,31 @@
         <v>1.73</v>
       </c>
       <c r="AR165" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="AT165" t="n">
-        <v>3.56</v>
+        <v>3.52</v>
       </c>
       <c r="AU165" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV165" t="n">
         <v>3</v>
       </c>
       <c r="AW165" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX165" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY165" t="n">
         <v>8</v>
       </c>
       <c r="AZ165" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA165" t="n">
         <v>6</v>
@@ -36677,10 +36677,10 @@
         <v>1.44</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="AT166" t="n">
-        <v>3.14</v>
+        <v>3.13</v>
       </c>
       <c r="AU166" t="n">
         <v>3</v>
@@ -36892,13 +36892,13 @@
         <v>1.33</v>
       </c>
       <c r="AR167" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="AS167" t="n">
         <v>1.34</v>
       </c>
       <c r="AT167" t="n">
-        <v>2.75</v>
+        <v>2.71</v>
       </c>
       <c r="AU167" t="n">
         <v>6</v>
@@ -37113,10 +37113,10 @@
         <v>1.91</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT168" t="n">
-        <v>3.05</v>
+        <v>3.04</v>
       </c>
       <c r="AU168" t="n">
         <v>5</v>
@@ -37546,13 +37546,13 @@
         <v>1.4</v>
       </c>
       <c r="AR170" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="AS170" t="n">
         <v>1.34</v>
       </c>
       <c r="AT170" t="n">
-        <v>2.91</v>
+        <v>2.92</v>
       </c>
       <c r="AU170" t="n">
         <v>12</v>
@@ -37561,16 +37561,16 @@
         <v>4</v>
       </c>
       <c r="AW170" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AX170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY170" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AZ170" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA170" t="n">
         <v>12</v>
@@ -37764,13 +37764,13 @@
         <v>1.2</v>
       </c>
       <c r="AR171" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="AS171" t="n">
         <v>1.61</v>
       </c>
       <c r="AT171" t="n">
-        <v>3.24</v>
+        <v>3.23</v>
       </c>
       <c r="AU171" t="n">
         <v>4</v>
@@ -37779,16 +37779,16 @@
         <v>9</v>
       </c>
       <c r="AW171" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AX171" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AY171" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ171" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="BA171" t="n">
         <v>5</v>
@@ -37985,28 +37985,28 @@
         <v>1.46</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AT172" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="AU172" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV172" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW172" t="n">
         <v>7</v>
       </c>
-      <c r="AW172" t="n">
-        <v>11</v>
-      </c>
       <c r="AX172" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AY172" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ172" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BA172" t="n">
         <v>12</v>
@@ -38200,13 +38200,13 @@
         <v>1.53</v>
       </c>
       <c r="AR173" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AS173" t="n">
         <v>1.51</v>
       </c>
       <c r="AT173" t="n">
-        <v>2.91</v>
+        <v>2.89</v>
       </c>
       <c r="AU173" t="n">
         <v>4</v>
@@ -38215,16 +38215,16 @@
         <v>4</v>
       </c>
       <c r="AW173" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ173" t="n">
         <v>5</v>
-      </c>
-      <c r="AX173" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY173" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ173" t="n">
-        <v>6</v>
       </c>
       <c r="BA173" t="n">
         <v>2</v>
@@ -38418,31 +38418,31 @@
         <v>1.27</v>
       </c>
       <c r="AR174" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AT174" t="n">
-        <v>3.44</v>
+        <v>3.38</v>
       </c>
       <c r="AU174" t="n">
         <v>6</v>
       </c>
       <c r="AV174" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AW174" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AX174" t="n">
         <v>1</v>
       </c>
       <c r="AY174" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ174" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA174" t="n">
         <v>7</v>
@@ -38636,31 +38636,31 @@
         <v>0.87</v>
       </c>
       <c r="AR175" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="AS175" t="n">
         <v>1.27</v>
       </c>
       <c r="AT175" t="n">
-        <v>3.45</v>
+        <v>3.39</v>
       </c>
       <c r="AU175" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AV175" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW175" t="n">
         <v>3</v>
-      </c>
-      <c r="AW175" t="n">
-        <v>4</v>
       </c>
       <c r="AX175" t="n">
         <v>3</v>
       </c>
       <c r="AY175" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ175" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA175" t="n">
         <v>11</v>
@@ -38869,16 +38869,16 @@
         <v>4</v>
       </c>
       <c r="AW176" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY176" t="n">
         <v>9</v>
       </c>
-      <c r="AX176" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY176" t="n">
-        <v>14</v>
-      </c>
       <c r="AZ176" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA176" t="n">
         <v>3</v>
@@ -38987,7 +38987,7 @@
       </c>
       <c r="P177" t="inlineStr">
         <is>
-          <t>['26', '36']</t>
+          <t>['27', '36']</t>
         </is>
       </c>
       <c r="Q177" t="n">
@@ -39075,10 +39075,10 @@
         <v>1.58</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="AT177" t="n">
-        <v>3.23</v>
+        <v>3.22</v>
       </c>
       <c r="AU177" t="n">
         <v>11</v>
@@ -39090,13 +39090,13 @@
         <v>7</v>
       </c>
       <c r="AX177" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY177" t="n">
         <v>18</v>
       </c>
       <c r="AZ177" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA177" t="n">
         <v>7</v>
@@ -39293,10 +39293,10 @@
         <v>1.42</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="AT178" t="n">
-        <v>2.94</v>
+        <v>2.93</v>
       </c>
       <c r="AU178" t="n">
         <v>13</v>
@@ -39511,10 +39511,10 @@
         <v>1.9</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AT179" t="n">
-        <v>3.79</v>
+        <v>3.75</v>
       </c>
       <c r="AU179" t="n">
         <v>10</v>
@@ -39726,13 +39726,13 @@
         <v>2</v>
       </c>
       <c r="AR180" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="AT180" t="n">
-        <v>3.4</v>
+        <v>3.37</v>
       </c>
       <c r="AU180" t="n">
         <v>2</v>
@@ -39944,13 +39944,13 @@
         <v>1.33</v>
       </c>
       <c r="AR181" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="AS181" t="n">
         <v>1.37</v>
       </c>
       <c r="AT181" t="n">
-        <v>2.96</v>
+        <v>2.95</v>
       </c>
       <c r="AU181" t="n">
         <v>6</v>
@@ -40162,13 +40162,13 @@
         <v>1.47</v>
       </c>
       <c r="AR182" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT182" t="n">
-        <v>2.84</v>
+        <v>2.75</v>
       </c>
       <c r="AU182" t="n">
         <v>4</v>
@@ -40380,13 +40380,13 @@
         <v>1.6</v>
       </c>
       <c r="AR183" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="AS183" t="n">
         <v>1.63</v>
       </c>
       <c r="AT183" t="n">
-        <v>3.5</v>
+        <v>3.49</v>
       </c>
       <c r="AU183" t="n">
         <v>14</v>
@@ -40816,13 +40816,13 @@
         <v>0.73</v>
       </c>
       <c r="AR185" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="AT185" t="n">
-        <v>3.14</v>
+        <v>3.12</v>
       </c>
       <c r="AU185" t="n">
         <v>6</v>
@@ -40944,7 +40944,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>['5', '42', '71', '77', '89']</t>
+          <t>['5', '42', '72', '77', '89']</t>
         </is>
       </c>
       <c r="P186" t="inlineStr">
@@ -41034,13 +41034,13 @@
         <v>1.27</v>
       </c>
       <c r="AR186" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT186" t="n">
-        <v>3.22</v>
+        <v>3.11</v>
       </c>
       <c r="AU186" t="n">
         <v>12</v>
@@ -41252,25 +41252,25 @@
         <v>0.87</v>
       </c>
       <c r="AR187" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="AT187" t="n">
-        <v>3.06</v>
+        <v>2.94</v>
       </c>
       <c r="AU187" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV187" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW187" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX187" t="n">
         <v>6</v>
-      </c>
-      <c r="AX187" t="n">
-        <v>8</v>
       </c>
       <c r="AY187" t="n">
         <v>13</v>
@@ -41470,13 +41470,13 @@
         <v>1.4</v>
       </c>
       <c r="AR188" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AT188" t="n">
-        <v>2.69</v>
+        <v>2.64</v>
       </c>
       <c r="AU188" t="n">
         <v>8</v>
@@ -41485,16 +41485,16 @@
         <v>3</v>
       </c>
       <c r="AW188" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX188" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AY188" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ188" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BA188" t="n">
         <v>5</v>
@@ -41688,13 +41688,13 @@
         <v>0.53</v>
       </c>
       <c r="AR189" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AT189" t="n">
-        <v>3.05</v>
+        <v>3.01</v>
       </c>
       <c r="AU189" t="n">
         <v>5</v>
@@ -41909,10 +41909,10 @@
         <v>1.7</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AT190" t="n">
-        <v>2.95</v>
+        <v>2.96</v>
       </c>
       <c r="AU190" t="n">
         <v>5</v>
@@ -42124,13 +42124,13 @@
         <v>1.33</v>
       </c>
       <c r="AR191" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="AS191" t="n">
         <v>1.39</v>
       </c>
       <c r="AT191" t="n">
-        <v>3.57</v>
+        <v>3.54</v>
       </c>
       <c r="AU191" t="n">
         <v>7</v>
@@ -42345,10 +42345,10 @@
         <v>1.53</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AT192" t="n">
-        <v>3.06</v>
+        <v>3.01</v>
       </c>
       <c r="AU192" t="n">
         <v>5</v>
@@ -42560,13 +42560,13 @@
         <v>1.53</v>
       </c>
       <c r="AR193" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AT193" t="n">
-        <v>2.82</v>
+        <v>2.79</v>
       </c>
       <c r="AU193" t="n">
         <v>5</v>
@@ -42778,13 +42778,13 @@
         <v>1.27</v>
       </c>
       <c r="AR194" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="AT194" t="n">
-        <v>3.45</v>
+        <v>3.38</v>
       </c>
       <c r="AU194" t="n">
         <v>7</v>
@@ -42996,13 +42996,13 @@
         <v>1.6</v>
       </c>
       <c r="AR195" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AS195" t="n">
         <v>1.61</v>
       </c>
       <c r="AT195" t="n">
-        <v>3.01</v>
+        <v>2.97</v>
       </c>
       <c r="AU195" t="n">
         <v>3</v>
@@ -43214,13 +43214,13 @@
         <v>1.2</v>
       </c>
       <c r="AR196" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="AT196" t="n">
-        <v>3.17</v>
+        <v>3.13</v>
       </c>
       <c r="AU196" t="n">
         <v>6</v>
@@ -43432,13 +43432,13 @@
         <v>0.93</v>
       </c>
       <c r="AR197" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT197" t="n">
-        <v>2.83</v>
+        <v>2.79</v>
       </c>
       <c r="AU197" t="n">
         <v>7</v>
@@ -43868,13 +43868,13 @@
         <v>1.73</v>
       </c>
       <c r="AR199" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="AT199" t="n">
-        <v>3.61</v>
+        <v>3.54</v>
       </c>
       <c r="AU199" t="n">
         <v>3</v>
@@ -44089,10 +44089,10 @@
         <v>1.66</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="AT200" t="n">
-        <v>3.23</v>
+        <v>3.22</v>
       </c>
       <c r="AU200" t="n">
         <v>3</v>
@@ -44304,13 +44304,13 @@
         <v>0.73</v>
       </c>
       <c r="AR201" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="AT201" t="n">
-        <v>3</v>
+        <v>2.97</v>
       </c>
       <c r="AU201" t="n">
         <v>7</v>
@@ -44525,10 +44525,10 @@
         <v>1.64</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="AT202" t="n">
-        <v>3.29</v>
+        <v>3.26</v>
       </c>
       <c r="AU202" t="n">
         <v>4</v>
@@ -44740,13 +44740,13 @@
         <v>1.4</v>
       </c>
       <c r="AR203" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="AT203" t="n">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="AU203" t="n">
         <v>4</v>
@@ -44958,13 +44958,13 @@
         <v>1.47</v>
       </c>
       <c r="AR204" t="n">
-        <v>2.19</v>
+        <v>2.16</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AT204" t="n">
-        <v>3.67</v>
+        <v>3.59</v>
       </c>
       <c r="AU204" t="n">
         <v>7</v>
@@ -45176,13 +45176,13 @@
         <v>0.73</v>
       </c>
       <c r="AR205" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AT205" t="n">
-        <v>3.08</v>
+        <v>3.06</v>
       </c>
       <c r="AU205" t="n">
         <v>7</v>
@@ -45309,7 +45309,7 @@
       </c>
       <c r="P206" t="inlineStr">
         <is>
-          <t>['55', '66']</t>
+          <t>['54', '66']</t>
         </is>
       </c>
       <c r="Q206" t="n">
@@ -45397,10 +45397,10 @@
         <v>1.93</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT206" t="n">
-        <v>3.43</v>
+        <v>3.38</v>
       </c>
       <c r="AU206" t="n">
         <v>6</v>
@@ -45612,13 +45612,13 @@
         <v>1.33</v>
       </c>
       <c r="AR207" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="AS207" t="n">
         <v>1.35</v>
       </c>
       <c r="AT207" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="AU207" t="n">
         <v>6</v>
@@ -45833,10 +45833,10 @@
         <v>1.67</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="AT208" t="n">
-        <v>3.05</v>
+        <v>3.04</v>
       </c>
       <c r="AU208" t="n">
         <v>4</v>
@@ -46051,10 +46051,10 @@
         <v>1.94</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AT209" t="n">
-        <v>3.19</v>
+        <v>3.21</v>
       </c>
       <c r="AU209" t="n">
         <v>6</v>
@@ -46266,13 +46266,13 @@
         <v>1.27</v>
       </c>
       <c r="AR210" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AT210" t="n">
-        <v>3.12</v>
+        <v>3.03</v>
       </c>
       <c r="AU210" t="n">
         <v>3</v>
@@ -46484,13 +46484,13 @@
         <v>0.93</v>
       </c>
       <c r="AR211" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="AS211" t="n">
         <v>1.17</v>
       </c>
       <c r="AT211" t="n">
-        <v>2.83</v>
+        <v>2.82</v>
       </c>
       <c r="AU211" t="n">
         <v>8</v>
@@ -46702,13 +46702,13 @@
         <v>0.87</v>
       </c>
       <c r="AR212" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AT212" t="n">
-        <v>2.81</v>
+        <v>2.72</v>
       </c>
       <c r="AU212" t="n">
         <v>7</v>
@@ -46923,10 +46923,10 @@
         <v>1.53</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="AT213" t="n">
-        <v>3.02</v>
+        <v>3.01</v>
       </c>
       <c r="AU213" t="n">
         <v>6</v>
@@ -47141,10 +47141,10 @@
         <v>1.67</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="AT214" t="n">
-        <v>3.56</v>
+        <v>3.53</v>
       </c>
       <c r="AU214" t="n">
         <v>0</v>
@@ -47356,13 +47356,13 @@
         <v>0.73</v>
       </c>
       <c r="AR215" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="AT215" t="n">
-        <v>3.26</v>
+        <v>3.22</v>
       </c>
       <c r="AU215" t="n">
         <v>4</v>
@@ -47577,10 +47577,10 @@
         <v>1.61</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AT216" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AU216" t="n">
         <v>3</v>
@@ -47792,13 +47792,13 @@
         <v>1.6</v>
       </c>
       <c r="AR217" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="AT217" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="AU217" t="n">
         <v>4</v>
@@ -48013,10 +48013,10 @@
         <v>1.35</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="AT218" t="n">
-        <v>2.71</v>
+        <v>2.67</v>
       </c>
       <c r="AU218" t="n">
         <v>6</v>
@@ -48228,13 +48228,13 @@
         <v>1.6</v>
       </c>
       <c r="AR219" t="n">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="AS219" t="n">
         <v>1.56</v>
       </c>
       <c r="AT219" t="n">
-        <v>3.73</v>
+        <v>3.71</v>
       </c>
       <c r="AU219" t="n">
         <v>7</v>
@@ -48449,10 +48449,10 @@
         <v>1.58</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AT220" t="n">
-        <v>3.06</v>
+        <v>3.02</v>
       </c>
       <c r="AU220" t="n">
         <v>5</v>
@@ -48667,10 +48667,10 @@
         <v>1.92</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AT221" t="n">
-        <v>3.56</v>
+        <v>3.53</v>
       </c>
       <c r="AU221" t="n">
         <v>4</v>
@@ -48882,13 +48882,13 @@
         <v>0.87</v>
       </c>
       <c r="AR222" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT222" t="n">
-        <v>2.96</v>
+        <v>2.85</v>
       </c>
       <c r="AU222" t="n">
         <v>4</v>
@@ -49100,13 +49100,13 @@
         <v>0.73</v>
       </c>
       <c r="AR223" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="AT223" t="n">
-        <v>3.05</v>
+        <v>3.02</v>
       </c>
       <c r="AU223" t="n">
         <v>8</v>
@@ -49318,13 +49318,13 @@
         <v>2</v>
       </c>
       <c r="AR224" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AT224" t="n">
-        <v>2.99</v>
+        <v>2.94</v>
       </c>
       <c r="AU224" t="n">
         <v>7</v>
@@ -49539,10 +49539,10 @@
         <v>1.96</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="AT225" t="n">
-        <v>3.33</v>
+        <v>3.32</v>
       </c>
       <c r="AU225" t="n">
         <v>8</v>
@@ -49754,13 +49754,13 @@
         <v>1.53</v>
       </c>
       <c r="AR226" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AT226" t="n">
-        <v>3.14</v>
+        <v>3.11</v>
       </c>
       <c r="AU226" t="n">
         <v>7</v>
@@ -49972,13 +49972,13 @@
         <v>1.73</v>
       </c>
       <c r="AR227" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="AT227" t="n">
-        <v>3.54</v>
+        <v>3.48</v>
       </c>
       <c r="AU227" t="n">
         <v>2</v>
@@ -50190,13 +50190,13 @@
         <v>0.73</v>
       </c>
       <c r="AR228" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="AT228" t="n">
-        <v>3.61</v>
+        <v>3.59</v>
       </c>
       <c r="AU228" t="n">
         <v>9</v>
@@ -50408,13 +50408,13 @@
         <v>2</v>
       </c>
       <c r="AR229" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AT229" t="n">
-        <v>3.04</v>
+        <v>3.02</v>
       </c>
       <c r="AU229" t="n">
         <v>4</v>
@@ -50626,13 +50626,13 @@
         <v>1.4</v>
       </c>
       <c r="AR230" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="AT230" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="AU230" t="n">
         <v>3</v>
@@ -51062,10 +51062,10 @@
         <v>0.87</v>
       </c>
       <c r="AR232" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AT232" t="n">
         <v>2.91</v>
@@ -51280,13 +51280,13 @@
         <v>1.33</v>
       </c>
       <c r="AR233" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="AS233" t="n">
         <v>1.34</v>
       </c>
       <c r="AT233" t="n">
-        <v>3.06</v>
+        <v>3.05</v>
       </c>
       <c r="AU233" t="n">
         <v>2</v>
@@ -51719,10 +51719,10 @@
         <v>1.92</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AT235" t="n">
-        <v>3.37</v>
+        <v>3.31</v>
       </c>
       <c r="AU235" t="n">
         <v>10</v>
@@ -51934,13 +51934,13 @@
         <v>1.6</v>
       </c>
       <c r="AR236" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="AS236" t="n">
         <v>1.48</v>
       </c>
       <c r="AT236" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="AU236" t="n">
         <v>8</v>
@@ -52152,13 +52152,13 @@
         <v>1.27</v>
       </c>
       <c r="AR237" t="n">
-        <v>2.21</v>
+        <v>2.2</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="AT237" t="n">
-        <v>3.95</v>
+        <v>3.89</v>
       </c>
       <c r="AU237" t="n">
         <v>9</v>
@@ -52373,10 +52373,10 @@
         <v>1.56</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AT238" t="n">
-        <v>3.03</v>
+        <v>2.98</v>
       </c>
       <c r="AU238" t="n">
         <v>4</v>
@@ -52400,10 +52400,10 @@
         <v>1</v>
       </c>
       <c r="BB238" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC238" t="n">
         <v>11</v>
-      </c>
-      <c r="BC238" t="n">
-        <v>12</v>
       </c>
       <c r="BD238" t="n">
         <v>3.4</v>
@@ -52588,13 +52588,13 @@
         <v>1.47</v>
       </c>
       <c r="AR239" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="AS239" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT239" t="n">
-        <v>2.87</v>
+        <v>2.79</v>
       </c>
       <c r="AU239" t="n">
         <v>2</v>
@@ -52806,13 +52806,13 @@
         <v>0.73</v>
       </c>
       <c r="AR240" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AT240" t="n">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="AU240" t="n">
         <v>5</v>
@@ -53024,13 +53024,13 @@
         <v>1.2</v>
       </c>
       <c r="AR241" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="AT241" t="n">
-        <v>2.99</v>
+        <v>2.94</v>
       </c>
       <c r="AU241" t="n">
         <v>6</v>
